--- a/hitung.xlsx
+++ b/hitung.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kampus\Skripsi Bismillahi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadilah\Dropbox\Skripsi Bismillahi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="parkir" sheetId="2" r:id="rId3"/>
-    <sheet name="kpk" sheetId="3" r:id="rId4"/>
+    <sheet name="parkir" sheetId="2" r:id="rId2"/>
+    <sheet name="kpk" sheetId="3" r:id="rId3"/>
+    <sheet name="Hitung NB" sheetId="5" r:id="rId4"/>
     <sheet name="dpr" sheetId="4" r:id="rId5"/>
+    <sheet name="Cluster KNN" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="491">
   <si>
     <t>D1</t>
   </si>
@@ -1465,6 +1466,84 @@
       </rPr>
       <t>Olahraga</t>
     </r>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Fitur X</t>
+  </si>
+  <si>
+    <t>Fitur Y</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Terdekat</t>
+  </si>
+  <si>
+    <t>Jarak Ke Cluster</t>
+  </si>
+  <si>
+    <t>Cluster yang diikuti</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Nk</t>
+  </si>
+  <si>
+    <t>Jumlah x</t>
+  </si>
+  <si>
+    <t>Jumlah Y</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>Nilai Fungsi Objektif j = 0+0+0+0+0 = 0</t>
+  </si>
+  <si>
+    <t>C1 = {D1, D3}</t>
+  </si>
+  <si>
+    <t>C2 = {D2}</t>
+  </si>
+  <si>
+    <t>C3 = {D1, D3}</t>
+  </si>
+  <si>
+    <t>C4 = {D4, D5, D, D8}</t>
+  </si>
+  <si>
+    <t>C5 = {D4, D, D7, D8}</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1675,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1660,6 +1739,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2013,6 +2104,67 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2040,7 +2192,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2049,16 +2204,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2074,16 +2219,30 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2414,7 +2573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF207"/>
   <sheetViews>
-    <sheetView topLeftCell="F186" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8:S205"/>
     </sheetView>
   </sheetViews>
@@ -2459,7 +2618,7 @@
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="116" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2476,17 +2635,17 @@
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AW3" s="93" t="s">
+      <c r="AW3" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AX3" s="93"/>
+      <c r="AX3" s="120"/>
       <c r="AY3" s="2">
         <f>AX112/(BB113*BC113)</f>
         <v>0</v>
@@ -2499,17 +2658,17 @@
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AW4" s="93" t="s">
+      <c r="AW4" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="AX4" s="93"/>
+      <c r="AX4" s="120"/>
       <c r="AY4" s="2">
         <f>AY112/(BB113*BD113)</f>
         <v>1.7946763741603238E-2</v>
@@ -2522,17 +2681,17 @@
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AW5" s="93" t="s">
+      <c r="AW5" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="AX5" s="93"/>
+      <c r="AX5" s="120"/>
       <c r="AY5" s="2">
         <f>AZ112/(BB113*BE113)</f>
         <v>0</v>
@@ -2545,66 +2704,66 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="95" t="s">
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="122" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="96" t="s">
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="123" t="s">
         <v>246</v>
       </c>
       <c r="AG6" s="48"/>
-      <c r="AW6" s="90" t="s">
+      <c r="AW6" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90" t="s">
+      <c r="AX6" s="117"/>
+      <c r="AY6" s="117"/>
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="117"/>
+      <c r="BB6" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
+      <c r="BC6" s="117"/>
+      <c r="BD6" s="117"/>
+      <c r="BE6" s="117"/>
+      <c r="BF6" s="117"/>
     </row>
     <row r="7" spans="1:58" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2619,7 +2778,7 @@
       <c r="E7" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2812,7 @@
       <c r="R7" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="95"/>
+      <c r="S7" s="122"/>
       <c r="T7" s="27" t="s">
         <v>8</v>
       </c>
@@ -2690,7 +2849,7 @@
       <c r="AE7" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" s="96"/>
+      <c r="AF7" s="123"/>
       <c r="AG7" s="48"/>
       <c r="AW7" s="17" t="s">
         <v>1</v>
@@ -21490,22 +21649,22 @@
       <c r="AF206" s="16"/>
     </row>
     <row r="207" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G207" s="88" t="s">
+      <c r="G207" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="H207" s="88"/>
-      <c r="I207" s="88"/>
-      <c r="J207" s="88"/>
-      <c r="K207" s="88"/>
-      <c r="L207" s="88"/>
-      <c r="M207" s="88"/>
-      <c r="N207" s="88"/>
-      <c r="O207" s="88"/>
-      <c r="P207" s="88"/>
-      <c r="Q207" s="88"/>
-      <c r="R207" s="88"/>
-      <c r="S207" s="88"/>
-      <c r="T207" s="88"/>
+      <c r="H207" s="115"/>
+      <c r="I207" s="115"/>
+      <c r="J207" s="115"/>
+      <c r="K207" s="115"/>
+      <c r="L207" s="115"/>
+      <c r="M207" s="115"/>
+      <c r="N207" s="115"/>
+      <c r="O207" s="115"/>
+      <c r="P207" s="115"/>
+      <c r="Q207" s="115"/>
+      <c r="R207" s="115"/>
+      <c r="S207" s="115"/>
+      <c r="T207" s="115"/>
       <c r="U207" s="44">
         <f t="shared" ref="U207:AE207" si="94">AVERAGE(U8:U205)</f>
         <v>0.12299785803828304</v>
@@ -21573,10 +21732,2059 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="49">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f>(C19+1)/(C121+C121)</f>
+        <v>3.0898876404494381E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="49">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f>(C20+1)/(C121+C121)</f>
+        <v>3.0898876404494381E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="49">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>(C21+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>(C22+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="49">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f>(C23+1)/(C121+C121)</f>
+        <v>1.4044943820224719E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="49">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f>(C24+1)/(C121+C121)</f>
+        <v>2.5280898876404494E-2</v>
+      </c>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="49">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>(C25+1)/(C121+C121)</f>
+        <v>2.247191011235955E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="49">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>(C26+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="49">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>(C27+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>(C28+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="49">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>(C29+1)/(C121+C121)</f>
+        <v>1.6853932584269662E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="49">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>(C30+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="49">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>(C31+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>(C32+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="49">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>(C33+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="49">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>(C34+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="49">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>(C35+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="49">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>(C36+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="49">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f>(C37+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="49">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>(C38+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="49">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>(C39+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="49">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>(C40+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="49">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f>(C41+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="49">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f>(C42+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="49">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>(C43+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="49">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>(C44+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="49">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f>(C45+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="49">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>(C46+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="49">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f>(C47+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="49">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f>(C48+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f>(C49+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="49">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <f>(C50+1)/(C121+C121)</f>
+        <v>1.4044943820224719E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="49">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f>(C51+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="49">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>(C52+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="49">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>(C53+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="49">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f>(C54+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="49">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f>(C55+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="49">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f>(C56+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="49">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f>(C57+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="49">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>(C58+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="49">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f>(C59+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="49">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f>(C60+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="49">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <f>(C61+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="49">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <f>(C62+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="49">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f>(C63+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="49">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f>(C64+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="49">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f>(C65+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" s="49">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f>(C66+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="49">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f>(C67+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="49">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <f>(C68+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="49">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f>(C69+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" s="49">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f>(C70+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="49">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f>(C71+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="49">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f>(C72+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="49">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <f>(C73+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="49">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f>(C74+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="49">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <f>(C75+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="49">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <f>(C76+1)/(C121+C121)</f>
+        <v>1.9662921348314606E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="49">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <f>(C77+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="49">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f>(C78+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="49">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f>(C79+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="49">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <f>(C80+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" s="49">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <f>(C81+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="49">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f>(C82+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="49">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f>(C83+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" s="49">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f>(C84+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="49">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f>(C85+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="49">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <f>(C86+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="49">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <f>(C87+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="49">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f>(C88+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="49">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <f>(C89+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="49">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <f>(C90+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="49">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f>(C91+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="49">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f>(C92+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="49">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <f>(C93+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="49">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <f>(C94+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="49">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <f>(C95+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="49">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <f>(C96+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="49">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f>(C97+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="49">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f>(C98+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="49">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f>(C99+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="49">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f>(C100+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="49">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f>(C101+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" s="49">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <f>(C102+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" s="49">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <f>(C103+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" s="49">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <f>(C104+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="49">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f>(C105+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="49">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f>(C106+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>324</v>
+      </c>
+      <c r="C107" s="49">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <f>(C107+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" s="49">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <f>(C108+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="49">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f>(C109+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="49">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <f>(C110+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="49">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <f>(C111+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="49">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <f>(C112+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="49">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <f>(C113+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="49">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <f>(C114+1)/(C121+C121)</f>
+        <v>8.4269662921348312E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="49">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <f>(C115+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="49">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <f>(C116+1)/(C121+C121)</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="49">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <f>(C117+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="55">
+        <v>179</v>
+      </c>
+      <c r="C118" s="49">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <f>(C118+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="49">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <f>(C119+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" s="49">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <f>(C120+1)/(C121+C121)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="59">
+        <f>SUM(C19:C120)</f>
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="63"/>
+    <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="68">
+        <v>4</v>
+      </c>
+      <c r="C16" s="64">
+        <f>(B16+1)/(B66+B66)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="68">
+        <v>8</v>
+      </c>
+      <c r="C17" s="64">
+        <f>(B17+1)/(B66+B66)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="68">
+        <v>5</v>
+      </c>
+      <c r="C18" s="64">
+        <f>(B18+1)/(B66+B66)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="68">
+        <v>6</v>
+      </c>
+      <c r="C19" s="64">
+        <f>(B19+1)/(B66+B66)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="68">
+        <v>1</v>
+      </c>
+      <c r="C20" s="64">
+        <f>(B20+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="68">
+        <v>1</v>
+      </c>
+      <c r="C21" s="64">
+        <f>(B21+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="68">
+        <v>4</v>
+      </c>
+      <c r="C22" s="64">
+        <f>(B22+1)/(B66+B66)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="68">
+        <v>5</v>
+      </c>
+      <c r="C23" s="64">
+        <f>(B23+1)/(B66+B66)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="68">
+        <v>1</v>
+      </c>
+      <c r="C24" s="64">
+        <f>(B24+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="68">
+        <v>2</v>
+      </c>
+      <c r="C25" s="64">
+        <f>(B25+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="68">
+        <v>1</v>
+      </c>
+      <c r="C26" s="64">
+        <f>(B26+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="68">
+        <v>2</v>
+      </c>
+      <c r="C27" s="64">
+        <f>(B27+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="68">
+        <v>2</v>
+      </c>
+      <c r="C28" s="64">
+        <f>(B28+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="68">
+        <v>2</v>
+      </c>
+      <c r="C29" s="64">
+        <f>(B29+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="68">
+        <v>2</v>
+      </c>
+      <c r="C30" s="64">
+        <f>(B30+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="68">
+        <v>1</v>
+      </c>
+      <c r="C31" s="64">
+        <f>(B31+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="68">
+        <v>1</v>
+      </c>
+      <c r="C32" s="64">
+        <f>(B32+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="68">
+        <v>1</v>
+      </c>
+      <c r="C33" s="64">
+        <f>(B33+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="68">
+        <v>2</v>
+      </c>
+      <c r="C34" s="64">
+        <f>(B34+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="68">
+        <v>2</v>
+      </c>
+      <c r="C35" s="64">
+        <f>(B35+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="68">
+        <v>1</v>
+      </c>
+      <c r="C36" s="64">
+        <f>(B36+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="68">
+        <v>1</v>
+      </c>
+      <c r="C37" s="64">
+        <f>(B37+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="68">
+        <v>1</v>
+      </c>
+      <c r="C38" s="64">
+        <f>(B38+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="68">
+        <v>4</v>
+      </c>
+      <c r="C39" s="64">
+        <f>(B39+1)/(B66+B66)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="68">
+        <v>1</v>
+      </c>
+      <c r="C40" s="64">
+        <f>(B40+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="68">
+        <v>2</v>
+      </c>
+      <c r="C41" s="64">
+        <f>(B41+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="68">
+        <v>1</v>
+      </c>
+      <c r="C42" s="64">
+        <f>(B42+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="68">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64">
+        <f>(B43+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="68">
+        <v>1</v>
+      </c>
+      <c r="C44" s="64">
+        <f>(B44+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="68">
+        <v>1</v>
+      </c>
+      <c r="C45" s="64">
+        <f>(B45+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="68">
+        <v>1</v>
+      </c>
+      <c r="C46" s="64">
+        <f>(B46+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="68">
+        <v>1</v>
+      </c>
+      <c r="C47" s="64">
+        <f>(B47+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="68">
+        <v>1</v>
+      </c>
+      <c r="C48" s="64">
+        <f>(B48+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="68">
+        <v>1</v>
+      </c>
+      <c r="C49" s="64">
+        <f>(B49+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" s="68">
+        <v>1</v>
+      </c>
+      <c r="C50" s="64">
+        <f>(B50+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" s="68">
+        <v>1</v>
+      </c>
+      <c r="C51" s="64">
+        <f>(B51+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" s="68">
+        <v>1</v>
+      </c>
+      <c r="C52" s="64">
+        <f>(B52+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" s="68">
+        <v>1</v>
+      </c>
+      <c r="C53" s="64">
+        <f>(B53+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" s="68">
+        <v>1</v>
+      </c>
+      <c r="C54" s="64">
+        <f>(B54+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="68">
+        <v>1</v>
+      </c>
+      <c r="C55" s="64">
+        <f>(B55+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" s="68">
+        <v>1</v>
+      </c>
+      <c r="C56" s="64">
+        <f>(B56+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="68">
+        <v>1</v>
+      </c>
+      <c r="C57" s="64">
+        <f>(B57+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="68">
+        <v>1</v>
+      </c>
+      <c r="C58" s="64">
+        <f>(B58+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" s="68">
+        <v>1</v>
+      </c>
+      <c r="C59" s="64">
+        <f>(B59+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="68">
+        <v>3</v>
+      </c>
+      <c r="C60" s="64">
+        <f>(B60+1)/(B66+B66)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="68">
+        <v>1</v>
+      </c>
+      <c r="C61" s="64">
+        <f>(B61+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="68">
+        <v>1</v>
+      </c>
+      <c r="C62" s="64">
+        <f>(B62+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="68">
+        <v>1</v>
+      </c>
+      <c r="C63" s="64">
+        <f>(B63+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="68">
+        <v>2</v>
+      </c>
+      <c r="C64" s="64">
+        <f>(B64+1)/(B66+B66)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="B65" s="68">
+        <v>1</v>
+      </c>
+      <c r="C65" s="64">
+        <f>(B65+1)/(B66+B66)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" s="70">
+        <f>SUM(B16:B65)</f>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21593,13 +23801,13 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
     <col min="27" max="27" width="34.7109375" customWidth="1"/>
@@ -21632,101 +23840,105 @@
       </c>
     </row>
     <row r="2" spans="2:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="95" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="126" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="126" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="127" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="125" t="s">
+        <v>339</v>
+      </c>
       <c r="P2" s="82" t="s">
         <v>453</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107" t="s">
+      <c r="Q2" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="131" t="s">
         <v>461</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="109" t="s">
+      <c r="X2" s="132"/>
+      <c r="Y2" s="93" t="s">
         <v>454</v>
       </c>
-      <c r="Z2" s="113"/>
+      <c r="Z2" s="97"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="91"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="H3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="122"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="S3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="T3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="W3" s="36" t="s">
         <v>459</v>
@@ -21734,10 +23946,10 @@
       <c r="X3" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="Y3" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="113"/>
+      <c r="Y3" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="97"/>
       <c r="AA3" t="s">
         <v>462</v>
       </c>
@@ -21779,7 +23991,7 @@
         <f>(C4+1)/(12+68+1)</f>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P4" s="97">
+      <c r="P4" s="89">
         <f>N4*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -21815,11 +24027,11 @@
         <f>SUM(T4:V4)</f>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y4" s="111">
+      <c r="Y4" s="95">
         <f>N4*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z4" s="113"/>
+      <c r="Z4" s="97"/>
       <c r="AA4" t="s">
         <v>463</v>
       </c>
@@ -21861,7 +24073,7 @@
         <f>(C5+1)/(12+68+1)</f>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P5" s="97">
+      <c r="P5" s="89">
         <f>N5*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -21897,11 +24109,11 @@
         <f t="shared" ref="X5:X6" si="12">SUM(T5:V5)</f>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y5" s="111">
+      <c r="Y5" s="95">
         <f>N5*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z5" s="113"/>
+      <c r="Z5" s="97"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
@@ -21942,7 +24154,7 @@
         <f t="shared" ref="O6:O18" si="13">(C6+1)/(12+68+1)</f>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="89">
         <f>N6*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -21978,11 +24190,11 @@
         <f t="shared" si="12"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y6" s="111">
+      <c r="Y6" s="95">
         <f>N6*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z6" s="113"/>
+      <c r="Z6" s="97"/>
     </row>
     <row r="7" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
@@ -22021,7 +24233,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="89">
         <f>N7*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22042,7 +24254,7 @@
         <v>0.05</v>
       </c>
       <c r="U7" s="16">
-        <f t="shared" si="9"/>
+        <f>(H7+1)/(9+12+1)</f>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="V7" s="16">
@@ -22054,14 +24266,14 @@
         <v>0.11417582417582418</v>
       </c>
       <c r="X7" s="84">
-        <f t="shared" ref="X5:X57" si="14">SUM(T7:V7)</f>
+        <f t="shared" ref="X7:X57" si="14">SUM(T7:V7)</f>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y7" s="111">
+      <c r="Y7" s="95">
         <f>N7*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z7" s="113"/>
+      <c r="Z7" s="97"/>
       <c r="AA7" t="s">
         <v>464</v>
       </c>
@@ -22105,7 +24317,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="89">
         <f>N8*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22141,11 +24353,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y8" s="111">
+      <c r="Y8" s="95">
         <f>N8*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z8" s="113"/>
+      <c r="Z8" s="97"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -22192,7 +24404,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P9" s="97">
+      <c r="P9" s="89">
         <f>N9*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22228,11 +24440,11 @@
         <f t="shared" si="14"/>
         <v>0.27786561264822135</v>
       </c>
-      <c r="Y9" s="111">
+      <c r="Y9" s="95">
         <f>N9*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z9" s="113"/>
+      <c r="Z9" s="97"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
@@ -22275,7 +24487,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="89">
         <f>N10*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22311,11 +24523,11 @@
         <f t="shared" si="14"/>
         <v>0.22786561264822136</v>
       </c>
-      <c r="Y10" s="111">
+      <c r="Y10" s="95">
         <f>N10*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z10" s="113"/>
+      <c r="Z10" s="97"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -22354,7 +24566,7 @@
         <f>(C11+1)/(13+68+1)</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P11" s="97"/>
+      <c r="P11" s="89"/>
       <c r="Q11" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -22387,8 +24599,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="113"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="97"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -22427,7 +24639,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P12" s="97">
+      <c r="P12" s="89">
         <f>N12*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22463,11 +24675,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y12" s="111">
+      <c r="Y12" s="95">
         <f>N12*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z12" s="113"/>
+      <c r="Z12" s="97"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -22508,7 +24720,7 @@
         <f t="shared" si="13"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P13" s="97"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -22541,8 +24753,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="113"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="97"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -22581,7 +24793,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P14" s="97">
+      <c r="P14" s="89">
         <f>N14*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22617,11 +24829,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y14" s="111">
+      <c r="Y14" s="95">
         <f>N14*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z14" s="113"/>
+      <c r="Z14" s="97"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -22662,7 +24874,7 @@
         <f t="shared" si="13"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P15" s="97"/>
+      <c r="P15" s="89"/>
       <c r="Q15" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -22695,8 +24907,8 @@
         <f t="shared" si="14"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="113"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="97"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
@@ -22737,7 +24949,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P16" s="97">
+      <c r="P16" s="89">
         <f>N16*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22773,11 +24985,11 @@
         <f t="shared" si="14"/>
         <v>0.22588932806324111</v>
       </c>
-      <c r="Y16" s="111">
+      <c r="Y16" s="95">
         <f>N16*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z16" s="113"/>
+      <c r="Z16" s="97"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
@@ -22816,7 +25028,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P17" s="97">
+      <c r="P17" s="89">
         <f>N17*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22852,11 +25064,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y17" s="111">
+      <c r="Y17" s="95">
         <f>N17*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z17" s="113"/>
+      <c r="Z17" s="97"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
@@ -22895,7 +25107,7 @@
         <f t="shared" si="13"/>
         <v>2.4691358024691357E-2</v>
       </c>
-      <c r="P18" s="97">
+      <c r="P18" s="89">
         <f>N18*P1</f>
         <v>3.7286706460842042E-12</v>
       </c>
@@ -22931,11 +25143,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y18" s="111">
+      <c r="Y18" s="95">
         <f>N18*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z18" s="113"/>
+      <c r="Z18" s="97"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -22978,7 +25190,7 @@
         <f>(C19+1)/(13+68+1)</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P19" s="97"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23011,11 +25223,11 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y19" s="111">
+      <c r="Y19" s="95">
         <f>N19*X1</f>
         <v>1.5521088391147975E-10</v>
       </c>
-      <c r="Z19" s="113"/>
+      <c r="Z19" s="97"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -23054,7 +25266,7 @@
         <f>(C20+1)/(13+68+1)</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P20" s="97"/>
+      <c r="P20" s="89"/>
       <c r="Q20" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23087,8 +25299,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="113"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="97"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
@@ -23127,7 +25339,7 @@
         <f t="shared" ref="O21:O29" si="15">(C21+1)/(13+68+1)</f>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P21" s="97"/>
+      <c r="P21" s="89"/>
       <c r="Q21" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23160,8 +25372,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="113"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="97"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -23200,7 +25412,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P22" s="97"/>
+      <c r="P22" s="89"/>
       <c r="Q22" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23233,8 +25445,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="113"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="97"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -23273,7 +25485,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P23" s="97"/>
+      <c r="P23" s="89"/>
       <c r="Q23" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23306,8 +25518,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="113"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="97"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -23346,7 +25558,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P24" s="97"/>
+      <c r="P24" s="89"/>
       <c r="Q24" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23379,8 +25591,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="113"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="97"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -23421,7 +25633,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P25" s="97"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23454,8 +25666,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="113"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="97"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
@@ -23494,7 +25706,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P26" s="97"/>
+      <c r="P26" s="89"/>
       <c r="Q26" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23527,8 +25739,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="113"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="97"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -23569,7 +25781,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P27" s="97"/>
+      <c r="P27" s="89"/>
       <c r="Q27" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23602,8 +25814,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="113"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="97"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
@@ -23644,7 +25856,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P28" s="97"/>
+      <c r="P28" s="89"/>
       <c r="Q28" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23677,8 +25889,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="113"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="97"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
@@ -23717,7 +25929,7 @@
         <f t="shared" si="15"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="P29" s="97"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="16">
         <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
@@ -23750,8 +25962,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="113"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="97"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
@@ -23790,7 +26002,7 @@
         <f>(C30+1)/(12+68+1)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P30" s="97"/>
+      <c r="P30" s="89"/>
       <c r="Q30" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -23823,8 +26035,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="113"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="97"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
@@ -23865,7 +26077,7 @@
         <f>(C31+1)/(12+68+1)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P31" s="97"/>
+      <c r="P31" s="89"/>
       <c r="Q31" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -23898,8 +26110,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="113"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="97"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -23938,7 +26150,7 @@
         <f t="shared" ref="O32:O36" si="16">(C32+1)/(12+68+1)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P32" s="97"/>
+      <c r="P32" s="89"/>
       <c r="Q32" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -23971,8 +26183,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="113"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="97"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -24011,7 +26223,7 @@
         <f t="shared" si="16"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P33" s="97"/>
+      <c r="P33" s="89"/>
       <c r="Q33" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24044,8 +26256,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="113"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="97"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
@@ -24084,7 +26296,7 @@
         <f t="shared" si="16"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P34" s="97"/>
+      <c r="P34" s="89"/>
       <c r="Q34" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24117,8 +26329,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y34" s="111"/>
-      <c r="Z34" s="113"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="97"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
@@ -24157,7 +26369,7 @@
         <f t="shared" si="16"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P35" s="97"/>
+      <c r="P35" s="89"/>
       <c r="Q35" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24190,8 +26402,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="113"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="97"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
@@ -24230,7 +26442,7 @@
         <f t="shared" si="16"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="P36" s="97"/>
+      <c r="P36" s="89"/>
       <c r="Q36" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24263,8 +26475,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="113"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="97"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
@@ -24303,7 +26515,7 @@
         <f>(C37+1)/(15+68+1)</f>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P37" s="97"/>
+      <c r="P37" s="89"/>
       <c r="Q37" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24336,8 +26548,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="113"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="97"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
@@ -24376,7 +26588,7 @@
         <f>(C38+1)/(15+68+1)</f>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P38" s="97"/>
+      <c r="P38" s="89"/>
       <c r="Q38" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24409,8 +26621,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="113"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="97"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
@@ -24449,7 +26661,7 @@
         <f t="shared" ref="O39:O42" si="17">(C39+1)/(15+68+1)</f>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P39" s="97"/>
+      <c r="P39" s="89"/>
       <c r="Q39" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24482,8 +26694,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="113"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="97"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
@@ -24522,7 +26734,7 @@
         <f t="shared" si="17"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P40" s="97"/>
+      <c r="P40" s="89"/>
       <c r="Q40" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24555,8 +26767,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="113"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="97"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
@@ -24595,7 +26807,7 @@
         <f t="shared" si="17"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P41" s="97"/>
+      <c r="P41" s="89"/>
       <c r="Q41" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24628,8 +26840,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y41" s="111"/>
-      <c r="Z41" s="113"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="97"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
@@ -24668,7 +26880,7 @@
         <f t="shared" si="17"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="P42" s="97"/>
+      <c r="P42" s="89"/>
       <c r="Q42" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24701,8 +26913,8 @@
         <f t="shared" si="14"/>
         <v>0.13893280632411067</v>
       </c>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="113"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="97"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
@@ -24741,7 +26953,7 @@
         <f>(C43+1)/(7+68+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P43" s="97"/>
+      <c r="P43" s="89"/>
       <c r="Q43" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24774,8 +26986,8 @@
         <f t="shared" si="14"/>
         <v>0.18893280632411066</v>
       </c>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="113"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="97"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
@@ -24814,7 +27026,7 @@
         <f>(C44+1)/(7+68+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P44" s="97"/>
+      <c r="P44" s="89"/>
       <c r="Q44" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24847,8 +27059,8 @@
         <f t="shared" si="14"/>
         <v>0.18893280632411066</v>
       </c>
-      <c r="Y44" s="111"/>
-      <c r="Z44" s="113"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
@@ -24889,7 +27101,7 @@
         <f t="shared" ref="O45:O48" si="18">(C45+1)/(7+68+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P45" s="97"/>
+      <c r="P45" s="89"/>
       <c r="Q45" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24922,8 +27134,8 @@
         <f t="shared" si="14"/>
         <v>0.23438735177865613</v>
       </c>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="113"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
@@ -24962,7 +27174,7 @@
         <f t="shared" si="18"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P46" s="97"/>
+      <c r="P46" s="89"/>
       <c r="Q46" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -24995,8 +27207,8 @@
         <f t="shared" si="14"/>
         <v>0.18893280632411066</v>
       </c>
-      <c r="Y46" s="111"/>
-      <c r="Z46" s="113"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
@@ -25035,7 +27247,7 @@
         <f t="shared" si="18"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P47" s="97"/>
+      <c r="P47" s="89"/>
       <c r="Q47" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25068,8 +27280,8 @@
         <f t="shared" si="14"/>
         <v>0.18893280632411066</v>
       </c>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="113"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
@@ -25108,7 +27320,7 @@
         <f t="shared" si="18"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="P48" s="97"/>
+      <c r="P48" s="89"/>
       <c r="Q48" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25141,8 +27353,8 @@
         <f t="shared" si="14"/>
         <v>0.18893280632411066</v>
       </c>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="113"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
@@ -25181,7 +27393,7 @@
         <f>(C49+1)/(9+68+1)</f>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="P49" s="97"/>
+      <c r="P49" s="89"/>
       <c r="Q49" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25214,8 +27426,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="113"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
@@ -25254,7 +27466,7 @@
         <f>(C50+1)/(9+68+1)</f>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="P50" s="97"/>
+      <c r="P50" s="89"/>
       <c r="Q50" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25287,8 +27499,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="113"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
@@ -25327,7 +27539,7 @@
         <f t="shared" ref="O51:O53" si="19">(C51+1)/(9+68+1)</f>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="P51" s="97"/>
+      <c r="P51" s="89"/>
       <c r="Q51" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25360,8 +27572,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="113"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="97"/>
     </row>
     <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
@@ -25400,7 +27612,7 @@
         <f t="shared" si="19"/>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="P52" s="97"/>
+      <c r="P52" s="89"/>
       <c r="Q52" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25433,8 +27645,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y52" s="111"/>
-      <c r="Z52" s="113"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="97"/>
     </row>
     <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
@@ -25473,7 +27685,7 @@
         <f t="shared" si="19"/>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="P53" s="97"/>
+      <c r="P53" s="89"/>
       <c r="Q53" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25506,8 +27718,8 @@
         <f t="shared" si="14"/>
         <v>0.18438735177865614</v>
       </c>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="113"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="97"/>
     </row>
     <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
@@ -25546,7 +27758,7 @@
         <f>(C54+1)/(10+68+1)</f>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="P54" s="97"/>
+      <c r="P54" s="89"/>
       <c r="Q54" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25579,8 +27791,8 @@
         <f t="shared" si="14"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y54" s="111"/>
-      <c r="Z54" s="113"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="97"/>
     </row>
     <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
@@ -25619,7 +27831,7 @@
         <f>(C55+1)/(10+68+1)</f>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="P55" s="97"/>
+      <c r="P55" s="89"/>
       <c r="Q55" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25652,8 +27864,8 @@
         <f t="shared" si="14"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y55" s="111"/>
-      <c r="Z55" s="113"/>
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="97"/>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
@@ -25692,7 +27904,7 @@
         <f t="shared" ref="O56:O57" si="20">(C56+1)/(10+68+1)</f>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="P56" s="97"/>
+      <c r="P56" s="89"/>
       <c r="Q56" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25725,8 +27937,8 @@
         <f t="shared" si="14"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y56" s="111"/>
-      <c r="Z56" s="113"/>
+      <c r="Y56" s="95"/>
+      <c r="Z56" s="97"/>
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
@@ -25765,7 +27977,7 @@
         <f t="shared" si="20"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="P57" s="97"/>
+      <c r="P57" s="89"/>
       <c r="Q57" s="16">
         <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
@@ -25798,8 +28010,8 @@
         <f t="shared" si="14"/>
         <v>0.18241106719367589</v>
       </c>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="113"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="97"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58" s="46" t="s">
@@ -25837,31 +28049,31 @@
         <f>SUM(C58:H58)</f>
         <v>68</v>
       </c>
-      <c r="K58" s="102">
+      <c r="K58" s="91">
         <f>SUM(K4:K57)</f>
         <v>40</v>
       </c>
-      <c r="L58" s="102">
+      <c r="L58" s="91">
         <f>SUM(L4:L57)</f>
         <v>26</v>
       </c>
-      <c r="M58" s="102">
+      <c r="M58" s="91">
         <f>SUM(M4:M57)</f>
         <v>78</v>
       </c>
-      <c r="N58" s="102"/>
-      <c r="O58" s="102"/>
-      <c r="P58" s="102"/>
-      <c r="Q58" s="103"/>
-      <c r="R58" s="103"/>
-      <c r="S58" s="103"/>
-      <c r="T58" s="103"/>
-      <c r="U58" s="103"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
-      <c r="X58" s="103"/>
-      <c r="Y58" s="112"/>
-      <c r="Z58" s="114"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="92"/>
+      <c r="Y58" s="96"/>
+      <c r="Z58" s="98"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B59" s="25"/>
@@ -26209,13 +28421,13 @@
       <c r="N65" s="72"/>
       <c r="O65" s="25"/>
       <c r="R65" s="76"/>
-      <c r="S65" s="91" t="s">
+      <c r="S65" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="T65" s="91" t="s">
+      <c r="T65" s="118" t="s">
         <v>456</v>
       </c>
-      <c r="U65" s="91" t="s">
+      <c r="U65" s="118" t="s">
         <v>457</v>
       </c>
     </row>
@@ -26233,9 +28445,9 @@
       <c r="N66" s="72"/>
       <c r="O66" s="25"/>
       <c r="R66" s="76"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
       <c r="AE66" s="76"/>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
@@ -28520,2055 +30732,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="49">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <f>(C19+1)/(C121+C121)</f>
-        <v>3.0898876404494381E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="49">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <f>(C20+1)/(C121+C121)</f>
-        <v>3.0898876404494381E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="49">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>(C21+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="49">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f>(C22+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="49">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <f>(C23+1)/(C121+C121)</f>
-        <v>1.4044943820224719E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="49">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <f>(C24+1)/(C121+C121)</f>
-        <v>2.5280898876404494E-2</v>
-      </c>
-      <c r="E24" s="53"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="49">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>(C25+1)/(C121+C121)</f>
-        <v>2.247191011235955E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="49">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f>(C26+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="49">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f>(C27+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="49">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f>(C28+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="49">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <f>(C29+1)/(C121+C121)</f>
-        <v>1.6853932584269662E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="49">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f>(C30+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="49">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f>(C31+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="49">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f>(C32+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="49">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f>(C33+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="49">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>(C34+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="49">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>(C35+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="49">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <f>(C36+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="49">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <f>(C37+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="49">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>(C38+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>266</v>
-      </c>
-      <c r="C39" s="49">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <f>(C39+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="49">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <f>(C40+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="49">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <f>(C41+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="49">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <f>(C42+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="49">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <f>(C43+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="49">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <f>(C44+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="49">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <f>(C45+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="49">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <f>(C46+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="49">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <f>(C47+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>279</v>
-      </c>
-      <c r="C48" s="49">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <f>(C48+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <f>(C49+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="49">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <f>(C50+1)/(C121+C121)</f>
-        <v>1.4044943820224719E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="49">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <f>(C51+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="49">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <f>(C52+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" s="49">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <f>(C53+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="49">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <f>(C54+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="49">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <f>(C55+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="49">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <f>(C56+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="49">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <f>(C57+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="49">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <f>(C58+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="49">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <f>(C59+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>287</v>
-      </c>
-      <c r="C60" s="49">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <f>(C60+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>288</v>
-      </c>
-      <c r="C61" s="49">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <f>(C61+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="49">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <f>(C62+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="49">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <f>(C63+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="49">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <f>(C64+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="49">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <f>(C65+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="49">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <f>(C66+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="49">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <f>(C67+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="49">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <f>(C68+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>293</v>
-      </c>
-      <c r="C69" s="49">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <f>(C69+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" s="49">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <f>(C70+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71" s="49">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <f>(C71+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72" s="49">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <f>(C72+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73" s="49">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <f>(C73+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>298</v>
-      </c>
-      <c r="C74" s="49">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <f>(C74+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="49">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <f>(C75+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>300</v>
-      </c>
-      <c r="C76" s="49">
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <f>(C76+1)/(C121+C121)</f>
-        <v>1.9662921348314606E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="49">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <f>(C77+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="49">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <f>(C78+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="49">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <f>(C79+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>304</v>
-      </c>
-      <c r="C80" s="49">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <f>(C80+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>305</v>
-      </c>
-      <c r="C81" s="49">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <f>(C81+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="49">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <f>(C82+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83" s="49">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <f>(C83+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>308</v>
-      </c>
-      <c r="C84" s="49">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <f>(C84+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>309</v>
-      </c>
-      <c r="C85" s="49">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <f>(C85+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="49">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <f>(C86+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>311</v>
-      </c>
-      <c r="C87" s="49">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <f>(C87+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>312</v>
-      </c>
-      <c r="C88" s="49">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <f>(C88+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="49">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <f>(C89+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="49">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <f>(C90+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="49">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <f>(C91+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="49">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <f>(C92+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="49">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <f>(C93+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="49">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <f>(C94+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>314</v>
-      </c>
-      <c r="C95" s="49">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <f>(C95+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>315</v>
-      </c>
-      <c r="C96" s="49">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <f>(C96+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="49">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <f>(C97+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>317</v>
-      </c>
-      <c r="C98" s="49">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <f>(C98+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" s="49">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <f>(C99+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" s="49">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <f>(C100+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="49">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <f>(C101+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="49">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <f>(C102+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="49">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <f>(C103+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>322</v>
-      </c>
-      <c r="C104" s="49">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <f>(C104+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="49">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <f>(C105+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" s="49">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <f>(C106+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>324</v>
-      </c>
-      <c r="C107" s="49">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <f>(C107+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>325</v>
-      </c>
-      <c r="C108" s="49">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <f>(C108+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="49">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <f>(C109+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="49">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <f>(C110+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>327</v>
-      </c>
-      <c r="C111" s="49">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <f>(C111+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>328</v>
-      </c>
-      <c r="C112" s="49">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <f>(C112+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>329</v>
-      </c>
-      <c r="C113" s="49">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <f>(C113+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>330</v>
-      </c>
-      <c r="C114" s="49">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <f>(C114+1)/(C121+C121)</f>
-        <v>8.4269662921348312E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>331</v>
-      </c>
-      <c r="C115" s="49">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <f>(C115+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>332</v>
-      </c>
-      <c r="C116" s="49">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <f>(C116+1)/(C121+C121)</f>
-        <v>1.1235955056179775E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>333</v>
-      </c>
-      <c r="C117" s="49">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <f>(C117+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="55">
-        <v>179</v>
-      </c>
-      <c r="C118" s="49">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <f>(C118+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>334</v>
-      </c>
-      <c r="C119" s="49">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <f>(C119+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>337</v>
-      </c>
-      <c r="C120" s="49">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <f>(C120+1)/(C121+C121)</f>
-        <v>5.6179775280898875E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="C121" s="59">
-        <f>SUM(C19:C120)</f>
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:F57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="63"/>
-    <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="63"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="68">
-        <v>4</v>
-      </c>
-      <c r="C16" s="64">
-        <f>(B16+1)/(B66+B66)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="68">
-        <v>8</v>
-      </c>
-      <c r="C17" s="64">
-        <f>(B17+1)/(B66+B66)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="68">
-        <v>5</v>
-      </c>
-      <c r="C18" s="64">
-        <f>(B18+1)/(B66+B66)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="68">
-        <v>6</v>
-      </c>
-      <c r="C19" s="64">
-        <f>(B19+1)/(B66+B66)</f>
-        <v>3.888888888888889E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="B20" s="68">
-        <v>1</v>
-      </c>
-      <c r="C20" s="64">
-        <f>(B20+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="68">
-        <v>1</v>
-      </c>
-      <c r="C21" s="64">
-        <f>(B21+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="B22" s="68">
-        <v>4</v>
-      </c>
-      <c r="C22" s="64">
-        <f>(B22+1)/(B66+B66)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="B23" s="68">
-        <v>5</v>
-      </c>
-      <c r="C23" s="64">
-        <f>(B23+1)/(B66+B66)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="B24" s="68">
-        <v>1</v>
-      </c>
-      <c r="C24" s="64">
-        <f>(B24+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="68">
-        <v>2</v>
-      </c>
-      <c r="C25" s="64">
-        <f>(B25+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="68">
-        <v>1</v>
-      </c>
-      <c r="C26" s="64">
-        <f>(B26+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="B27" s="68">
-        <v>2</v>
-      </c>
-      <c r="C27" s="64">
-        <f>(B27+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" s="68">
-        <v>2</v>
-      </c>
-      <c r="C28" s="64">
-        <f>(B28+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" s="68">
-        <v>2</v>
-      </c>
-      <c r="C29" s="64">
-        <f>(B29+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="B30" s="68">
-        <v>2</v>
-      </c>
-      <c r="C30" s="64">
-        <f>(B30+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="68">
-        <v>1</v>
-      </c>
-      <c r="C31" s="64">
-        <f>(B31+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="B32" s="68">
-        <v>1</v>
-      </c>
-      <c r="C32" s="64">
-        <f>(B32+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B33" s="68">
-        <v>1</v>
-      </c>
-      <c r="C33" s="64">
-        <f>(B33+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" s="68">
-        <v>2</v>
-      </c>
-      <c r="C34" s="64">
-        <f>(B34+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="68">
-        <v>2</v>
-      </c>
-      <c r="C35" s="64">
-        <f>(B35+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="68">
-        <v>1</v>
-      </c>
-      <c r="C36" s="64">
-        <f>(B36+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" s="68">
-        <v>1</v>
-      </c>
-      <c r="C37" s="64">
-        <f>(B37+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" s="68">
-        <v>1</v>
-      </c>
-      <c r="C38" s="64">
-        <f>(B38+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="68">
-        <v>4</v>
-      </c>
-      <c r="C39" s="64">
-        <f>(B39+1)/(B66+B66)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="B40" s="68">
-        <v>1</v>
-      </c>
-      <c r="C40" s="64">
-        <f>(B40+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="B41" s="68">
-        <v>2</v>
-      </c>
-      <c r="C41" s="64">
-        <f>(B41+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="B42" s="68">
-        <v>1</v>
-      </c>
-      <c r="C42" s="64">
-        <f>(B42+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="B43" s="68">
-        <v>1</v>
-      </c>
-      <c r="C43" s="64">
-        <f>(B43+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="68">
-        <v>1</v>
-      </c>
-      <c r="C44" s="64">
-        <f>(B44+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="B45" s="68">
-        <v>1</v>
-      </c>
-      <c r="C45" s="64">
-        <f>(B45+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="68">
-        <v>1</v>
-      </c>
-      <c r="C46" s="64">
-        <f>(B46+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="B47" s="68">
-        <v>1</v>
-      </c>
-      <c r="C47" s="64">
-        <f>(B47+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="68">
-        <v>1</v>
-      </c>
-      <c r="C48" s="64">
-        <f>(B48+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="B49" s="68">
-        <v>1</v>
-      </c>
-      <c r="C49" s="64">
-        <f>(B49+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B50" s="68">
-        <v>1</v>
-      </c>
-      <c r="C50" s="64">
-        <f>(B50+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="B51" s="68">
-        <v>1</v>
-      </c>
-      <c r="C51" s="64">
-        <f>(B51+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="B52" s="68">
-        <v>1</v>
-      </c>
-      <c r="C52" s="64">
-        <f>(B52+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="68">
-        <v>1</v>
-      </c>
-      <c r="C53" s="64">
-        <f>(B53+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="B54" s="68">
-        <v>1</v>
-      </c>
-      <c r="C54" s="64">
-        <f>(B54+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="B55" s="68">
-        <v>1</v>
-      </c>
-      <c r="C55" s="64">
-        <f>(B55+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="B56" s="68">
-        <v>1</v>
-      </c>
-      <c r="C56" s="64">
-        <f>(B56+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="68">
-        <v>1</v>
-      </c>
-      <c r="C57" s="64">
-        <f>(B57+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="B58" s="68">
-        <v>1</v>
-      </c>
-      <c r="C58" s="64">
-        <f>(B58+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="B59" s="68">
-        <v>1</v>
-      </c>
-      <c r="C59" s="64">
-        <f>(B59+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="B60" s="68">
-        <v>3</v>
-      </c>
-      <c r="C60" s="64">
-        <f>(B60+1)/(B66+B66)</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B61" s="68">
-        <v>1</v>
-      </c>
-      <c r="C61" s="64">
-        <f>(B61+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B62" s="68">
-        <v>1</v>
-      </c>
-      <c r="C62" s="64">
-        <f>(B62+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="B63" s="68">
-        <v>1</v>
-      </c>
-      <c r="C63" s="64">
-        <f>(B63+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="B64" s="68">
-        <v>2</v>
-      </c>
-      <c r="C64" s="64">
-        <f>(B64+1)/(B66+B66)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="B65" s="68">
-        <v>1</v>
-      </c>
-      <c r="C65" s="64">
-        <f>(B65+1)/(B66+B66)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="B66" s="70">
-        <f>SUM(B16:B65)</f>
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31057,4 +31220,2402 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AH57"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="140" t="s">
+        <v>465</v>
+      </c>
+      <c r="L2" s="139" t="s">
+        <v>465</v>
+      </c>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="T2" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="136" t="s">
+        <v>472</v>
+      </c>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA2" s="138" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC2" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="136" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="118"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="122"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="R3" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="T3" s="135"/>
+      <c r="U3" s="29">
+        <v>1</v>
+      </c>
+      <c r="V3" s="29">
+        <v>2</v>
+      </c>
+      <c r="W3" s="29">
+        <v>3</v>
+      </c>
+      <c r="X3" s="29">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="138"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="29">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="35">
+        <f>COUNTA(C4:I4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f>SUM(C4:I4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="100">
+        <v>7</v>
+      </c>
+      <c r="N4" s="100">
+        <v>3</v>
+      </c>
+      <c r="O4" s="100" t="s">
+        <v>466</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="88">
+        <v>7</v>
+      </c>
+      <c r="R4" s="102">
+        <v>5</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <f>SQRT((Q4-Q13)*(Q4-Q13))+((R4-R13)*(R4-R13))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <f>SQRT((Q4-Q14)*(Q4-Q14))+((R4-R14)*(R4-R14))</f>
+        <v>25</v>
+      </c>
+      <c r="W4" s="104">
+        <f>SQRT((Q4-Q15)*(Q4-Q15)+(R4-R15)*(R4-R15))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="104">
+        <f>SQRT((Q4-Q16)*(Q4-Q16)+(R4-R16)*(R4-R16))</f>
+        <v>7</v>
+      </c>
+      <c r="Y4" s="104">
+        <f>SQRT((Q4-Q17)*(Q4-Q17)+(R4-R17)*(R4-R17))</f>
+        <v>7</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="35">
+        <f t="shared" ref="J5:J30" si="0">COUNTA(C5:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K56" si="1">SUM(C5:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="M5" s="100">
+        <v>5</v>
+      </c>
+      <c r="N5" s="100">
+        <v>5</v>
+      </c>
+      <c r="O5" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>7</v>
+      </c>
+      <c r="R5" s="88">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="104">
+        <f>SQRT((Q5-Q13)*(Q5-Q13)+(R5-R13)*(R5-R13))</f>
+        <v>5</v>
+      </c>
+      <c r="V5" s="104">
+        <f>SQRT((Q5-Q14)*(Q5-Q14)+(R5-R14)*(R5-R14))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="104">
+        <f>SQRT((Q5-Q15)*(Q5-Q15)+(R5-R15)*(R5-R15))</f>
+        <v>5</v>
+      </c>
+      <c r="X5" s="104">
+        <f>SQRT((Q5-Q16)*(Q5-Q16)+(R5-R16)*(R5-R16))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="Y5" s="104">
+        <f>SQRT((Q5-Q17)*(Q5-Q17)+(R5-R17)*(R5-R17))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="95">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>420</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>7</v>
+      </c>
+      <c r="R6" s="88">
+        <v>5</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="104">
+        <f>SQRT((Q6-Q13)*(Q6-Q13)+(R6-R13)*(R6-R13))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="104">
+        <f>SQRT((Q6-Q14)*(Q6-Q14)+(R6-R14)*(R6-R14))</f>
+        <v>5</v>
+      </c>
+      <c r="W6" s="104">
+        <f>SQRT((Q6-Q15)*(Q6-Q15)+(R6-R15)*(R6-R15))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="104">
+        <f>SQRT((Q6-Q16)*(Q6-Q16)+(R6-R16)*(R6-R16))</f>
+        <v>7</v>
+      </c>
+      <c r="Y6" s="104">
+        <f>SQRT((Q6-Q17)*(Q17)+(R6-R17)*(R6-R17))</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>0</v>
+      </c>
+      <c r="R7" s="88">
+        <v>5</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="104">
+        <f>SQRT((Q7-Q13)*(Q7-Q13)+(R7-R13)*(R7-R13))</f>
+        <v>7</v>
+      </c>
+      <c r="V7" s="104">
+        <f>SQRT((Q7-Q14)*(Q7-Q14)+(R7-R14)*(R7-R14))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="W7" s="104">
+        <f>SQRT((Q7-Q15)*(Q7-Q15)+(R7-R15)*(R7-R15))</f>
+        <v>7</v>
+      </c>
+      <c r="X7" s="16">
+        <f>SQRT((Q7-Q16)*(Q7-Q16)+(R7-R16)*(R7-R16))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="104">
+        <f>SQRT((Q7-Q17)*(Q7-Q17)+(R7-R17)*(R7-R17))</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82">
+        <v>2</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="114">
+        <v>0</v>
+      </c>
+      <c r="R8" s="114">
+        <v>5</v>
+      </c>
+      <c r="T8" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="109">
+        <f>SQRT((Q8-Q13)*(Q8-Q13)+(R8-R13)*(R8-R13))</f>
+        <v>7</v>
+      </c>
+      <c r="V8" s="109">
+        <f>SQRT((Q8-Q14)*(Q8-Q14)+(R8-R14)*(R8-R14))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="W8" s="109">
+        <f>SQRT((Q8-Q15)*(Q8-Q15)+(R8-R15)*(R8-R15))</f>
+        <v>7</v>
+      </c>
+      <c r="X8" s="109">
+        <f>SQRT((Q8-Q16)*(Q8-Q16)+(R8-R16)*(R8-R16))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="109">
+        <f>SQRT((Q8-Q17)*(Q8-Q17)+(R8-R17)*(R8-R17))</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="113" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="110">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="110">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="110">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="110">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82">
+        <v>1</v>
+      </c>
+      <c r="G9" s="84">
+        <v>1</v>
+      </c>
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="84">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>0</v>
+      </c>
+      <c r="R9" s="88">
+        <v>5</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="104">
+        <f>SQRT((Q9-Q13)*(Q9-Q13)+(R9-R13)*(R9-R13))</f>
+        <v>7</v>
+      </c>
+      <c r="V9" s="104">
+        <f>SQRT((Q9-Q14)*(Q9-Q14)+(R9-R14)*(R9-R14))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="W9" s="104">
+        <f>SQRT((Q9-Q15)*(Q9-Q15)+(R9-R15)*(R9-R15))</f>
+        <v>7</v>
+      </c>
+      <c r="X9" s="104">
+        <f>SQRT((Q9-Q16)*(Q9-Q16)+(R9-R16)*(R9-R16))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="104">
+        <f>SQRT((Q9-Q17)*(Q9-Q17)+(R9-R17)*(R9-R17))</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84">
+        <v>1</v>
+      </c>
+      <c r="I10" s="84">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35">
+        <f>COUNTA(C10:I10)</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>418</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="P10" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>0</v>
+      </c>
+      <c r="R10" s="88">
+        <v>5</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="104">
+        <f>SQRT((Q10-Q13)*(Q10-Q13)+(R10-R13)*(R10-R13))</f>
+        <v>7</v>
+      </c>
+      <c r="V10" s="104">
+        <f>SQRT((Q10-Q14)*(Q10-Q14)+(R10-R14)*(R10-R14))</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="W10" s="104">
+        <f>SQRT((Q10-Q15)*(Q10-Q15)+(R10-R15)*(R10-R15))</f>
+        <v>7</v>
+      </c>
+      <c r="X10" s="104">
+        <f>SQRT((Q10-Q16)*(Q10-Q16)+(R10-R16)*(R10-R16))</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="104">
+        <f>SQRT((Q10-Q17)*(Q10-Q17)+(R10-R17)*(R10-R17))</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="82">
+        <v>1</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD11" s="16">
+        <f>SUM(AD4:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <f t="shared" ref="AE11:AH11" si="2">SUM(AE4:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="90">
+        <v>1</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>431</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="103" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q12" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="R12" s="103" t="s">
+        <v>469</v>
+      </c>
+      <c r="T12" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+    </row>
+    <row r="13" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="82">
+        <v>1</v>
+      </c>
+      <c r="E13" s="82">
+        <v>1</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>432</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>7</v>
+      </c>
+      <c r="R13" s="102">
+        <v>5</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="V13" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z13" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC13" s="137" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="90">
+        <v>1</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2012</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="P14" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="88">
+        <v>7</v>
+      </c>
+      <c r="R14" s="88">
+        <v>0</v>
+      </c>
+      <c r="T14" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="106">
+        <v>7</v>
+      </c>
+      <c r="V14" s="106">
+        <v>5</v>
+      </c>
+      <c r="X14" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="106">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82">
+        <v>2</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2009</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="P15" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="88">
+        <v>7</v>
+      </c>
+      <c r="R15" s="88">
+        <v>5</v>
+      </c>
+      <c r="T15" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="106">
+        <v>7</v>
+      </c>
+      <c r="V15" s="106">
+        <v>5</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y15" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z15" s="107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="90">
+        <v>1</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84">
+        <v>2</v>
+      </c>
+      <c r="J16" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>441</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="P16" s="88">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>0</v>
+      </c>
+      <c r="R16" s="88">
+        <v>5</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="U16" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="V16" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14">
+        <f>SUM(Y14:Y15)</f>
+        <v>7</v>
+      </c>
+      <c r="Z16" s="14">
+        <f>SUM(Z14:Z15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="90">
+        <v>1</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="88">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="88">
+        <v>0</v>
+      </c>
+      <c r="R17" s="88">
+        <v>5</v>
+      </c>
+      <c r="T17" s="14">
+        <v>2</v>
+      </c>
+      <c r="U17" s="14">
+        <f>SUM(U14:U15)</f>
+        <v>14</v>
+      </c>
+      <c r="V17" s="14">
+        <f>SUM(V14:V15)</f>
+        <v>10</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y17" s="108">
+        <f>AVERAGE(Y16/X16)</f>
+        <v>7</v>
+      </c>
+      <c r="Z17" s="108">
+        <f>AVERAGE(Z16/X16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="90">
+        <v>1</v>
+      </c>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="U18" s="108">
+        <f>AVERAGE(U17/T17)</f>
+        <v>7</v>
+      </c>
+      <c r="V18" s="108">
+        <f>AVERAGE(V17/T17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="35">
+        <v>3</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="82">
+        <v>1</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="X20" s="133" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="82">
+        <v>1</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="V21" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z21" s="107" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="82">
+        <v>1</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="106">
+        <v>7</v>
+      </c>
+      <c r="V22" s="106">
+        <v>5</v>
+      </c>
+      <c r="X22" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="106">
+        <v>7</v>
+      </c>
+      <c r="V23" s="106">
+        <v>5</v>
+      </c>
+      <c r="X23" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="90"/>
+      <c r="D24" s="82">
+        <v>1</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="U24" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="V24" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="X24" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y24" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="82">
+        <v>1</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82">
+        <v>1</v>
+      </c>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T25" s="14">
+        <v>2</v>
+      </c>
+      <c r="U25" s="14">
+        <f>SUM(U22:U23)</f>
+        <v>14</v>
+      </c>
+      <c r="V25" s="14">
+        <f>SUM(V22:V23)</f>
+        <v>10</v>
+      </c>
+      <c r="X25" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y25" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>2014</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="82">
+        <v>1</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="U26" s="108">
+        <f>AVERAGE(U25/T25)</f>
+        <v>7</v>
+      </c>
+      <c r="V26" s="108">
+        <f>AVERAGE(V25/T25)</f>
+        <v>5</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y26" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z26" s="107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="90"/>
+      <c r="D27" s="82">
+        <v>1</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84">
+        <v>1</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X27" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="14">
+        <f>SUM(Y22:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="14">
+        <f>SUM(Z22:Z25)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>2012</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="82">
+        <v>1</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82">
+        <v>1</v>
+      </c>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T28" s="134" t="s">
+        <v>484</v>
+      </c>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="X28" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y28" s="108">
+        <f>AVERAGE(Y27/X27)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="108">
+        <f>AVERAGE(Z27/X27)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <v>2013</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="82">
+        <v>1</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="110" t="s">
+        <v>468</v>
+      </c>
+      <c r="V29" s="110" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T30" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="112">
+        <v>0</v>
+      </c>
+      <c r="V30" s="112">
+        <v>5</v>
+      </c>
+      <c r="X30" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y30">
+        <f>SQRT((Q7-Y28)*(Q7-Y28)+(R7-Z28)*(R7-Z28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82">
+        <v>1</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="35">
+        <f t="shared" ref="J31:J56" si="3">COUNTA(C31:I31)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="U31" s="112">
+        <v>0</v>
+      </c>
+      <c r="V31" s="112">
+        <v>5</v>
+      </c>
+      <c r="X31" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82">
+        <v>1</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="U32" s="112">
+        <v>0</v>
+      </c>
+      <c r="V32" s="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82">
+        <v>1</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="U33" s="112">
+        <v>0</v>
+      </c>
+      <c r="V33" s="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82">
+        <v>1</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="112" t="s">
+        <v>477</v>
+      </c>
+      <c r="U34" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="V34" s="110" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82">
+        <v>1</v>
+      </c>
+      <c r="F35" s="82"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T35" s="112">
+        <v>4</v>
+      </c>
+      <c r="U35" s="112">
+        <f>SUM(U30:U33)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="112">
+        <f>SUM(V30:V33)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35">
+        <v>1</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="U36" s="112">
+        <f>AVERAGE(U35/T35)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="112">
+        <f>AVERAGE(V35/T35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82">
+        <v>1</v>
+      </c>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82">
+        <v>1</v>
+      </c>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82">
+        <v>1</v>
+      </c>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82">
+        <v>1</v>
+      </c>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82">
+        <v>1</v>
+      </c>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="111" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35">
+        <v>1</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T42" s="111" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="84">
+        <v>1</v>
+      </c>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="84">
+        <v>1</v>
+      </c>
+      <c r="H44" s="84">
+        <v>1</v>
+      </c>
+      <c r="I44" s="84"/>
+      <c r="J44" s="35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="84">
+        <v>1</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="90"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="84">
+        <v>1</v>
+      </c>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="90"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="84">
+        <v>1</v>
+      </c>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="16">
+        <v>2010</v>
+      </c>
+      <c r="C49" s="90"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84">
+        <v>1</v>
+      </c>
+      <c r="I49" s="84"/>
+      <c r="J49" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84">
+        <v>1</v>
+      </c>
+      <c r="I50" s="84"/>
+      <c r="J50" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84">
+        <v>1</v>
+      </c>
+      <c r="I51" s="84"/>
+      <c r="J51" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="84">
+        <v>1</v>
+      </c>
+      <c r="I52" s="85"/>
+      <c r="J52" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35">
+        <v>1</v>
+      </c>
+      <c r="J53" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C54" s="90"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84">
+        <v>1</v>
+      </c>
+      <c r="J54" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84">
+        <v>1</v>
+      </c>
+      <c r="J55" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C56" s="90"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84">
+        <v>1</v>
+      </c>
+      <c r="J56" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="47">
+        <f t="shared" ref="C57:I57" si="4">SUM(C4:C56)</f>
+        <v>12</v>
+      </c>
+      <c r="D57" s="82">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E57" s="82">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F57" s="82">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G57" s="84">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H57" s="84">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I57" s="84">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J57" s="47">
+        <f>SUM(C57:H57)</f>
+        <v>68</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="T2:T3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>